--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notobo\source\repos\RecruitmentApp\RecruitmentApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BD7774-9BC0-42BE-A145-0D52BBA2A8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B1653-2D42-4FCD-830E-8AB9A8B80C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="339">
   <si>
     <t>company_id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>slug</t>
-  </si>
-  <si>
     <t>company_type</t>
   </si>
   <si>
@@ -65,15 +62,9 @@
     <t>working_time</t>
   </si>
   <si>
-    <t>overview</t>
-  </si>
-  <si>
     <t>logo_image</t>
   </si>
   <si>
-    <t xml:space="preserve">workplace </t>
-  </si>
-  <si>
     <t>company_link</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>MB Bank</t>
   </si>
   <si>
-    <t>mb-bank</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>TECHCOMBANK</t>
   </si>
   <si>
-    <t>ngan-hang-tmcp-ky-thuong-viet-nam</t>
-  </si>
-  <si>
     <t>1000+</t>
   </si>
   <si>
@@ -143,9 +128,6 @@
     <t>NAB</t>
   </si>
   <si>
-    <t>Trung tâm đổi mới NAB Việt Nam</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -161,9 +143,6 @@
     <t>SUNGROVE TECH Việt Nam</t>
   </si>
   <si>
-    <t>Công nghệ CNTT hàng đầu của Nhật Bản</t>
-  </si>
-  <si>
     <t>1-50</t>
   </si>
   <si>
@@ -182,9 +161,6 @@
     <t>VUIAPP</t>
   </si>
   <si>
-    <t>Công nghệ nano</t>
-  </si>
-  <si>
     <t>51-150</t>
   </si>
   <si>
@@ -218,9 +194,6 @@
     <t>HD BANK</t>
   </si>
   <si>
-    <t>HD-BANK</t>
-  </si>
-  <si>
     <t>https://hdbank.com.vn/</t>
   </si>
   <si>
@@ -257,9 +230,6 @@
     <t>Scandinavian</t>
   </si>
   <si>
-    <t>Công viên Phần mềm Scandinavian</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -392,9 +362,6 @@
     <t>Techcom Securities</t>
   </si>
   <si>
-    <t>TCBS</t>
-  </si>
-  <si>
     <t>Monday - Saturday</t>
   </si>
   <si>
@@ -1013,9 +980,6 @@
     <t>Benifit</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>DegreeRequirement</t>
   </si>
   <si>
@@ -1023,6 +987,72 @@
   </si>
   <si>
     <t>CompanyId</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>0987654322</t>
+  </si>
+  <si>
+    <t>0987654323</t>
+  </si>
+  <si>
+    <t>0987654324</t>
+  </si>
+  <si>
+    <t>0987654325</t>
+  </si>
+  <si>
+    <t>0987654326</t>
+  </si>
+  <si>
+    <t>0987654327</t>
+  </si>
+  <si>
+    <t>0987654328</t>
+  </si>
+  <si>
+    <t>0987654329</t>
+  </si>
+  <si>
+    <t>0987654330</t>
+  </si>
+  <si>
+    <t>0987654331</t>
+  </si>
+  <si>
+    <t>0987654332</t>
+  </si>
+  <si>
+    <t>0987654333</t>
+  </si>
+  <si>
+    <t>0987654334</t>
+  </si>
+  <si>
+    <t>0987654335</t>
+  </si>
+  <si>
+    <t>0987654336</t>
+  </si>
+  <si>
+    <t>0987654337</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1044,6 +1074,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1051,18 +1088,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF121212"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1090,12 +1115,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1150,6 +1169,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1174,70 +1206,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1451,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P999"/>
+  <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1462,24 +1496,22 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="68.109375" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.5546875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="39.44140625" customWidth="1"/>
-    <col min="14" max="14" width="56" customWidth="1"/>
-    <col min="15" max="15" width="100.88671875" customWidth="1"/>
-    <col min="16" max="16" width="96.6640625" customWidth="1"/>
-    <col min="17" max="17" width="67" customWidth="1"/>
-    <col min="18" max="27" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="54.109375" customWidth="1"/>
+    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="16" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,10 +1521,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1504,708 +1536,714 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1">
+      <c r="M1" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1">
+      <c r="L2" s="2"/>
+      <c r="N2" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+      <c r="N3" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A5" s="23">
+      <c r="L4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>40</v>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1">
+      <c r="L5" s="2"/>
+      <c r="N5" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="L7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1">
+      <c r="N7" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
+      <c r="B8" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="L9" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1">
+      <c r="N9" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1">
+      <c r="N11" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1">
+      <c r="L13" s="2"/>
+      <c r="N13" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A15" s="23">
+      <c r="K14" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="O14" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1">
+      <c r="K15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>105</v>
+      <c r="B16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A17" s="23">
+      <c r="K16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1">
+      <c r="K17" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1"/>
+      <c r="B18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:15" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -3174,49 +3212,22 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N9" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="N16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="N18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{84CE4012-E480-4C9A-91DB-DABA1797404B}"/>
+    <hyperlink ref="O3:O18" r:id="rId2" display="test@gmail.com" xr:uid="{D5436207-763D-4FB8-A064-5D0DFBA03AD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3228,485 +3239,495 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
-    <col min="11" max="26" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>325</v>
+    <row r="1" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" t="s">
+        <v>314</v>
       </c>
       <c r="J1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="31">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="28">
         <v>700000</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>15000000</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <v>1</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="K2">
+      <c r="F2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="J2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="31">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="28">
         <v>700000</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <v>20000000</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <v>2</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="K3">
+      <c r="F3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="35">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="32">
         <f>3000*23000</f>
         <v>69000000</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="28">
         <f>4000*23000</f>
         <v>92000000</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <v>3</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="K4">
+      <c r="F4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="33">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="30">
         <v>10000000</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>20000000</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="30">
         <v>4</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="K5">
+      <c r="F5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="33">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="30">
         <v>23000000</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="28">
         <f>23000*2000</f>
         <v>46000000</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <v>5</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="K6">
+      <c r="F6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="33">
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="30">
         <v>23000000</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <f>1500*23000</f>
         <v>34500000</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="30">
         <v>6</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="K7">
+      <c r="F7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="J7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="34">
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="31">
         <f>2500*23000</f>
         <v>57500000</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="28">
         <f>3500*23000</f>
         <v>80500000</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>7</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="K8">
+      <c r="F8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="J8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="33">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="30">
         <v>0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="28">
         <f>2000*23000</f>
         <v>46000000</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="30">
         <v>8</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="K9">
+      <c r="F9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="34">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="31">
         <f>500*23000</f>
         <v>11500000</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <f>1200*23000</f>
         <v>27600000</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <v>9</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="K10">
+      <c r="F10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="J10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="34">
+    <row r="11" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="31">
         <f>900*23000</f>
         <v>20700000</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="28">
         <f>1200*23000</f>
         <v>27600000</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="30">
         <v>10</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="K11">
+      <c r="F11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="J11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="34">
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="31">
         <v>25000000</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>32000000</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <v>11</v>
       </c>
-      <c r="F12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="K12">
+      <c r="F12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="J12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="34">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="31">
         <f>23000*800</f>
         <v>18400000</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="28">
         <f>1600*23000</f>
         <v>36800000</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="30">
         <v>12</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="K13">
+      <c r="F13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="J13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="34">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="31">
         <f>600*23000</f>
         <v>13800000</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="28">
         <f>2500*23000</f>
         <v>57500000</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <v>13</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="K14">
+      <c r="F14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="J14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="34">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="31">
         <f>600*23000</f>
         <v>13800000</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="28">
         <f>1200*23000</f>
         <v>27600000</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="30">
         <v>14</v>
       </c>
-      <c r="F15" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="K15">
+      <c r="F15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="J15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="34">
+    <row r="16" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="31">
         <f>3000*2300</f>
         <v>6900000</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="28">
         <f>3800*23000</f>
         <v>87400000</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <v>15</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="K16">
+      <c r="F16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="J16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="34">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="31">
         <v>0</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="28">
         <f>2000*23000</f>
         <v>46000000</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="30">
         <v>16</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="K17">
+      <c r="F17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4700,460 +4721,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="19"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="F4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="19"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G5" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="22"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="15" t="s">
+      <c r="G6" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="22"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="G8" s="13" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>150</v>
+      <c r="D9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>154</v>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="D20" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="F21" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="D22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="D23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="G23" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="D24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="D25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="D20" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="D22" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="D24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="D25" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>120</v>
+      <c r="G25" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5174,188 +5195,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A13" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3" s="28" t="s">
+    <row r="14" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A14" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="15" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A5" s="28" t="s">
+    <row r="16" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="17" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A7" s="28" t="s">
+    <row r="18" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A8" s="28" t="s">
+    <row r="19" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A19" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A9" s="28" t="s">
+    <row r="20" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="21" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A11" s="28" t="s">
+    <row r="22" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A12" s="28" t="s">
+    <row r="23" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A23" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A13" s="28" t="s">
+    <row r="24" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A24" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A14" s="28" t="s">
+    <row r="25" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A15" s="28" t="s">
+    <row r="26" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A26" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A16" s="28" t="s">
+    <row r="27" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A27" s="25" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A17" s="28" t="s">
+    <row r="28" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A28" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A18" s="28" t="s">
+    <row r="29" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A29" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A19" s="28" t="s">
+    <row r="30" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A30" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A20" s="28" t="s">
+    <row r="31" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A21" s="28" t="s">
+    <row r="32" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A32" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A22" s="28" t="s">
+    <row r="33" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A33" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A23" s="28" t="s">
+    <row r="34" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A34" s="25" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A24" s="28" t="s">
+    <row r="35" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A35" s="25" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A25" s="28" t="s">
+    <row r="36" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A36" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A26" s="28" t="s">
+    <row r="37" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A37" s="25" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A28" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A33" s="28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A34" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A37" s="28" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" customHeight="1"/>
@@ -6339,38 +6360,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>244</v>
+      <c r="A2" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>245</v>
+      <c r="A3" s="27" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>246</v>
+      <c r="A4" s="27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A5" s="30" t="s">
-        <v>247</v>
+      <c r="A5" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>248</v>
+      <c r="A6" s="27" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A7" s="30" t="s">
-        <v>249</v>
+      <c r="A7" s="27" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
@@ -7387,717 +7408,717 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="28" t="str">
+      <c r="A2" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="25" t="str">
         <f>CONCATENATE("new (){ Name = '",Title!A2, "',},")</f>
         <v>new (){ Name = '.NET Developer',},</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="28" t="str">
+      <c r="A3" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="25" t="str">
         <f t="shared" ref="E3:E80" si="0">CONCATENATE("new (){ Name = '",A3, "',},")</f>
         <v>new (){ Name = 'Android',},</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="28" t="str">
+      <c r="A4" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Angular',},</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="28" t="str">
+      <c r="A5" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'AngularJS',},</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="28" t="str">
+      <c r="A6" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'ASP.NET',},</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="28" t="str">
+      <c r="A7" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Automation Test',},</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="28" t="str">
+      <c r="A8" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'AWS',},</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="28" t="str">
+      <c r="A9" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Azure',},</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="28" t="str">
+      <c r="A10" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Blockchain',},</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="28" t="str">
+      <c r="A11" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Bridge Engineer',},</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="28" t="str">
+      <c r="A12" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Business Analyst',},</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="E13" s="28" t="str">
+      <c r="A13" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'C#',},</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="28" t="str">
+      <c r="A14" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'C++',},</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="28" t="str">
+      <c r="A15" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'C language',},</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="28" t="str">
+      <c r="A16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Cloud',},</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="28" t="str">
+      <c r="A17" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'CSS',},</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="28" t="str">
+      <c r="A18" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Dart',},</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="28" t="str">
+      <c r="A19" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Data Analyst',},</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E20" s="28" t="str">
+      <c r="A20" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Database',},</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="28" t="str">
+      <c r="A21" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Designer',},</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="28" t="str">
+      <c r="A22" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'DevOps',},</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="28" t="str">
+      <c r="A23" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Django',},</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A24" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E24" s="28" t="str">
+      <c r="A24" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Elixir',},</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A25" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="28" t="str">
+      <c r="A25" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Embedded',},</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="28" t="str">
+      <c r="A26" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'English',},</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27" s="28" t="str">
+      <c r="A27" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'ERP',},</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A28" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="28" t="str">
+      <c r="A28" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Flutter',},</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" s="28" t="str">
+      <c r="A29" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Games',},</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E30" s="28" t="str">
+      <c r="A30" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Golang',},</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="E31" s="28" t="str">
+      <c r="A31" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'HTML5',},</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="28" t="str">
+      <c r="A32" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'iOS',},</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A33" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="28" t="str">
+      <c r="A33" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'IT Support',},</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A34" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="28" t="str">
+      <c r="A34" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'J2EE',},</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A35" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="28" t="str">
+      <c r="A35" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Japanese',},</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A36" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="E36" s="28" t="str">
+      <c r="A36" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Java',},</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A37" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="E37" s="28" t="str">
+      <c r="A37" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'JavaScript',},</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A38" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="28" t="str">
+      <c r="A38" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'JSON',},</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A39" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="28" t="str">
+      <c r="A39" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Kotlin',},</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A40" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="28" t="str">
+      <c r="A40" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Laravel',},</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A41" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="28" t="str">
+      <c r="A41" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Linux',},</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A42" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" s="28" t="str">
+      <c r="A42" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Magento',},</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A43" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="28" t="str">
+      <c r="A43" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Manager',},</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A44" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="28" t="str">
+      <c r="A44" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'MVC',},</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A45" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="28" t="str">
+      <c r="A45" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'MySQL',},</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A46" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="28" t="str">
+      <c r="A46" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = '.NET',},</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="28" t="str">
+      <c r="A47" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Networking',},</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="28" t="str">
+      <c r="A48" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'NodeJS',},</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A49" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="28" t="str">
+      <c r="A49" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'NoSQL',},</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A50" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" s="28" t="str">
+      <c r="A50" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E50" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Objective C',},</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A51" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" s="28" t="str">
+      <c r="A51" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E51" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'OOP',},</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A52" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" s="28" t="str">
+      <c r="A52" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E52" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Oracle',},</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A53" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" s="28" t="str">
+      <c r="A53" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E53" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'PHP',},</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A54" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="E54" s="28" t="str">
+      <c r="A54" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'PostgreSql',},</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A55" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" s="28" t="str">
+      <c r="A55" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E55" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Product Manager',},</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A56" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="28" t="str">
+      <c r="A56" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Project Manager',},</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A57" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="28" t="str">
+      <c r="A57" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E57" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Python',},</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A58" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E58" s="28" t="str">
+      <c r="A58" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'QA QC',},</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A59" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E59" s="28" t="str">
+      <c r="A59" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'ReactJS',},</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A60" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="E60" s="28" t="str">
+      <c r="A60" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'React Native',},</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A61" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E61" s="28" t="str">
+      <c r="A61" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Ruby',},</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A62" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62" s="28" t="str">
+      <c r="A62" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Ruby on Rails',},</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A63" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E63" s="28" t="str">
+      <c r="A63" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'SAP',},</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A64" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E64" s="28" t="str">
+      <c r="A64" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Scala',},</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A65" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E65" s="28" t="str">
+      <c r="A65" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Scrum',},</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A66" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E66" s="28" t="str">
+      <c r="A66" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Sharepoint',},</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A67" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E67" s="28" t="str">
+      <c r="A67" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Software Architect',},</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A68" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E68" s="28" t="str">
+      <c r="A68" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E68" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Solidity',},</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A69" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E69" s="28" t="str">
+      <c r="A69" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E69" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Spring',},</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A70" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E70" s="28" t="str">
+      <c r="A70" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E70" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'SQL',},</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A71" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="E71" s="28" t="str">
+      <c r="A71" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Swift',},</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A72" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72" s="28" t="str">
+      <c r="A72" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'System Admin',},</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A73" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" s="28" t="str">
+      <c r="A73" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'System Engineer',},</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A74" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="E74" s="28" t="str">
+      <c r="A74" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Team Leader',},</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A75" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="28" t="str">
+      <c r="A75" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Tester',},</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A76" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E76" s="28" t="str">
+      <c r="A76" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'TypeScript',},</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A77" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="E77" s="28" t="str">
+      <c r="A77" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'UI-UX',},</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A78" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="E78" s="28" t="str">
+      <c r="A78" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Unity',},</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A79" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E79" s="28" t="str">
+      <c r="A79" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'VueJS',},</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A80" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="E80" s="28" t="str">
+      <c r="A80" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E80" s="25" t="str">
         <f t="shared" si="0"/>
         <v>new (){ Name = 'Wordpress',},</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notobo\source\repos\RecruitmentApp\RecruitmentApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#\ASP.NET\source\repos\RecruitmentApp\RecruitmentApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B1653-2D42-4FCD-830E-8AB9A8B80C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F643B7-F756-4A99-8882-06D8BE02A47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company" sheetId="1" r:id="rId1"/>
-    <sheet name="Post" sheetId="3" r:id="rId2"/>
-    <sheet name="Address" sheetId="2" r:id="rId3"/>
-    <sheet name="Title" sheetId="4" r:id="rId4"/>
-    <sheet name="Levels" sheetId="5" r:id="rId5"/>
-    <sheet name="Skill" sheetId="6" r:id="rId6"/>
+    <sheet name="Images" sheetId="7" r:id="rId2"/>
+    <sheet name="Post" sheetId="3" r:id="rId3"/>
+    <sheet name="Address" sheetId="2" r:id="rId4"/>
+    <sheet name="Title" sheetId="4" r:id="rId5"/>
+    <sheet name="Levels" sheetId="5" r:id="rId6"/>
+    <sheet name="Skill" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="355">
   <si>
     <t>company_id</t>
   </si>
@@ -1053,6 +1054,54 @@
   </si>
   <si>
     <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>techombank.png</t>
+  </si>
+  <si>
+    <t>nab-innovation-centre-vietnam-14.jpg</t>
+  </si>
+  <si>
+    <t>sungrove-tech-viet-nam-13.jpg</t>
+  </si>
+  <si>
+    <t>cong-ty-tnhh-cong-nghe-asilla-viet-nam-11.jpg</t>
+  </si>
+  <si>
+    <t>ngan-hang-thuong-mai-co-phan-phat-trien-thanh-pho-ho-chi-minh-10.jpg</t>
+  </si>
+  <si>
+    <t>Asia.jpg</t>
+  </si>
+  <si>
+    <t>Scandinavian softwave park.png</t>
+  </si>
+  <si>
+    <t>nano-technologies-12.png</t>
+  </si>
+  <si>
+    <t>dich-vu-cong-nghe-ryte-viet-nam-16.png</t>
+  </si>
+  <si>
+    <t>ntt-data-vds-5.jpg</t>
+  </si>
+  <si>
+    <t>cong-ty-tnhh-isb-viet-nam-7.png</t>
+  </si>
+  <si>
+    <t>cong-ty-phan-mem-tower-hanoitohsoft-4.png</t>
+  </si>
+  <si>
+    <t>maple-labs-3.png</t>
+  </si>
+  <si>
+    <t>cong-ty-co-phan-chung-khoan-ky-thuong-techcom-securities-tcbs-17.png</t>
+  </si>
+  <si>
+    <t>nha-cung-cap-dich-vu-so-dsp-digital-service-provider-2.png</t>
+  </si>
+  <si>
+    <t>cong-ty-co-phan-propertyguru-viet-nam-8.png</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,6 +1318,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1487,24 +1545,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O999"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.5546875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="54.109375" customWidth="1"/>
-    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
     <col min="13" max="13" width="22.109375" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" style="33" customWidth="1"/>
     <col min="15" max="15" width="18.77734375" customWidth="1"/>
@@ -1562,7 +1620,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1602,7 +1660,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1624,7 +1682,9 @@
         <v>17</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="K3" s="31" t="s">
         <v>24</v>
       </c>
@@ -1642,7 +1702,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1664,7 +1724,9 @@
         <v>17</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="31" t="s">
         <v>32</v>
@@ -1680,7 +1742,7 @@
       <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1702,7 +1764,9 @@
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="K5" s="31" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1782,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1740,7 +1804,9 @@
         <v>17</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" t="s">
+        <v>346</v>
+      </c>
       <c r="K6" s="31" t="s">
         <v>43</v>
       </c>
@@ -1758,7 +1824,7 @@
       <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1780,7 +1846,9 @@
         <v>17</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="K7" s="31" t="s">
         <v>48</v>
       </c>
@@ -1798,7 +1866,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1820,7 +1888,9 @@
         <v>17</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="K8" s="31" t="s">
         <v>52</v>
       </c>
@@ -1838,7 +1908,7 @@
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1860,7 +1930,9 @@
         <v>17</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="K9" s="31" t="s">
         <v>59</v>
       </c>
@@ -1878,7 +1950,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1900,7 +1972,9 @@
         <v>17</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="K10" s="31" t="s">
         <v>65</v>
       </c>
@@ -1918,7 +1992,7 @@
       <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="37" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1940,7 +2014,9 @@
         <v>17</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="K11" s="31" t="s">
         <v>71</v>
       </c>
@@ -1958,7 +2034,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1980,7 +2056,9 @@
         <v>17</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="K12" s="31" t="s">
         <v>77</v>
       </c>
@@ -1998,7 +2076,7 @@
       <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2020,7 +2098,9 @@
         <v>17</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="K13" s="31" t="s">
         <v>84</v>
       </c>
@@ -2036,7 +2116,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="37" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2058,7 +2138,9 @@
         <v>17</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="K14" s="31" t="s">
         <v>88</v>
       </c>
@@ -2076,7 +2158,7 @@
       <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="37" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2098,7 +2180,9 @@
         <v>17</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="K15" s="31" t="s">
         <v>91</v>
       </c>
@@ -2116,7 +2200,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="39" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2138,7 +2222,9 @@
         <v>17</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="K16" s="31" t="s">
         <v>96</v>
       </c>
@@ -2156,7 +2242,7 @@
       <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2178,7 +2264,9 @@
         <v>17</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="K17" s="31" t="s">
         <v>102</v>
       </c>
@@ -2196,7 +2284,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="39" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2216,6 +2304,9 @@
       </c>
       <c r="H18" s="13" t="s">
         <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>352</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>24</v>
@@ -3223,11 +3314,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C94B465-AE67-4135-A2D1-3679DC12E1FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4702,7 +4805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5182,7 +5285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -6348,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -7393,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
